--- a/target/classes/users.xlsx
+++ b/target/classes/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F81B975-27FF-4862-8B04-1C6C88E7B4C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D503251C-3149-4FF6-80A0-AAD1176B6CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zlx123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张万青</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +56,10 @@
   </si>
   <si>
     <t>桂林电子科技大学花江校区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zlx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,18 +394,18 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,35 +419,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>15907780040</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>12312312312</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
     </row>
   </sheetData>
